--- a/GuessSounds.xlsx
+++ b/GuessSounds.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uwoca-my.sharepoint.com/personal/swan689_uwo_ca/Documents/Desktop/Project BL/Auditory Pattern Separation/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uwoca-my.sharepoint.com/personal/swan689_uwo_ca/Documents/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5" documentId="8_{6B160EE7-0CC5-4E2E-8192-8DF220A8E903}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{7ECA6481-5F91-4CE9-A48A-76A67939EDC6}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="8_{17A454BF-1989-47ED-8217-A869C5BED0DF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{BAE45259-14AF-4239-A12C-1B19142CF7B3}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14660" xr2:uid="{BE90900A-ACE8-4230-85D6-181754847329}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="107">
   <si>
     <t>Type</t>
   </si>
@@ -343,6 +343,9 @@
   </si>
   <si>
     <t>Initial/NoRepeat/Helicopter_A.wav</t>
+  </si>
+  <si>
+    <t>Extra</t>
   </si>
 </sst>
 </file>
@@ -366,18 +369,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -395,8 +392,8 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -714,16 +711,16 @@
   <dimension ref="A1:B101"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A71" workbookViewId="0">
-      <selection activeCell="A95" sqref="A95"/>
+      <selection activeCell="B82" sqref="B82:B101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="31.90625" customWidth="1"/>
+    <col min="1" max="1" width="31.90625" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="3" t="s">
         <v>101</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -731,7 +728,7 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B2" t="s">
@@ -739,7 +736,7 @@
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
+      <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B3" t="s">
@@ -747,7 +744,7 @@
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
+      <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B4" t="s">
@@ -755,7 +752,7 @@
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
+      <c r="A5" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B5" t="s">
@@ -763,7 +760,7 @@
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
+      <c r="A6" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B6" t="s">
@@ -771,7 +768,7 @@
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
+      <c r="A7" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B7" t="s">
@@ -779,7 +776,7 @@
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
+      <c r="A8" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B8" t="s">
@@ -787,7 +784,7 @@
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
+      <c r="A9" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B9" t="s">
@@ -795,7 +792,7 @@
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
+      <c r="A10" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B10" t="s">
@@ -803,7 +800,7 @@
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
+      <c r="A11" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B11" t="s">
@@ -811,7 +808,7 @@
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
+      <c r="A12" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B12" t="s">
@@ -819,7 +816,7 @@
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
+      <c r="A13" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B13" t="s">
@@ -827,7 +824,7 @@
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
+      <c r="A14" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B14" t="s">
@@ -835,7 +832,7 @@
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
+      <c r="A15" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B15" t="s">
@@ -843,7 +840,7 @@
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
+      <c r="A16" s="2" t="s">
         <v>16</v>
       </c>
       <c r="B16" t="s">
@@ -851,7 +848,7 @@
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
+      <c r="A17" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B17" t="s">
@@ -859,7 +856,7 @@
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
+      <c r="A18" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B18" t="s">
@@ -867,7 +864,7 @@
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A19" t="s">
+      <c r="A19" s="2" t="s">
         <v>19</v>
       </c>
       <c r="B19" t="s">
@@ -883,7 +880,7 @@
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A21" t="s">
+      <c r="A21" s="2" t="s">
         <v>21</v>
       </c>
       <c r="B21" t="s">
@@ -891,7 +888,7 @@
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A22" t="s">
+      <c r="A22" s="2" t="s">
         <v>22</v>
       </c>
       <c r="B22" t="s">
@@ -899,7 +896,7 @@
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A23" t="s">
+      <c r="A23" s="2" t="s">
         <v>24</v>
       </c>
       <c r="B23" t="s">
@@ -907,7 +904,7 @@
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A24" t="s">
+      <c r="A24" s="2" t="s">
         <v>25</v>
       </c>
       <c r="B24" t="s">
@@ -915,7 +912,7 @@
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A25" t="s">
+      <c r="A25" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B25" t="s">
@@ -923,7 +920,7 @@
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A26" t="s">
+      <c r="A26" s="2" t="s">
         <v>27</v>
       </c>
       <c r="B26" t="s">
@@ -931,7 +928,7 @@
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A27" t="s">
+      <c r="A27" s="2" t="s">
         <v>28</v>
       </c>
       <c r="B27" t="s">
@@ -939,7 +936,7 @@
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A28" t="s">
+      <c r="A28" s="2" t="s">
         <v>29</v>
       </c>
       <c r="B28" t="s">
@@ -947,7 +944,7 @@
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A29" t="s">
+      <c r="A29" s="2" t="s">
         <v>30</v>
       </c>
       <c r="B29" t="s">
@@ -955,7 +952,7 @@
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A30" t="s">
+      <c r="A30" s="2" t="s">
         <v>31</v>
       </c>
       <c r="B30" t="s">
@@ -963,7 +960,7 @@
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A31" t="s">
+      <c r="A31" s="2" t="s">
         <v>32</v>
       </c>
       <c r="B31" t="s">
@@ -971,7 +968,7 @@
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A32" t="s">
+      <c r="A32" s="2" t="s">
         <v>33</v>
       </c>
       <c r="B32" t="s">
@@ -979,7 +976,7 @@
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A33" t="s">
+      <c r="A33" s="2" t="s">
         <v>34</v>
       </c>
       <c r="B33" t="s">
@@ -987,7 +984,7 @@
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A34" t="s">
+      <c r="A34" s="2" t="s">
         <v>35</v>
       </c>
       <c r="B34" t="s">
@@ -995,7 +992,7 @@
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A35" t="s">
+      <c r="A35" s="2" t="s">
         <v>36</v>
       </c>
       <c r="B35" t="s">
@@ -1003,7 +1000,7 @@
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A36" t="s">
+      <c r="A36" s="2" t="s">
         <v>37</v>
       </c>
       <c r="B36" t="s">
@@ -1011,7 +1008,7 @@
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A37" t="s">
+      <c r="A37" s="2" t="s">
         <v>38</v>
       </c>
       <c r="B37" t="s">
@@ -1019,7 +1016,7 @@
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A38" t="s">
+      <c r="A38" s="2" t="s">
         <v>39</v>
       </c>
       <c r="B38" t="s">
@@ -1027,7 +1024,7 @@
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A39" t="s">
+      <c r="A39" s="2" t="s">
         <v>40</v>
       </c>
       <c r="B39" t="s">
@@ -1035,7 +1032,7 @@
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A40" t="s">
+      <c r="A40" s="2" t="s">
         <v>41</v>
       </c>
       <c r="B40" t="s">
@@ -1043,7 +1040,7 @@
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A41" t="s">
+      <c r="A41" s="2" t="s">
         <v>42</v>
       </c>
       <c r="B41" t="s">
@@ -1051,7 +1048,7 @@
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A42" t="s">
+      <c r="A42" s="2" t="s">
         <v>43</v>
       </c>
       <c r="B42" t="s">
@@ -1059,7 +1056,7 @@
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A43" t="s">
+      <c r="A43" s="2" t="s">
         <v>45</v>
       </c>
       <c r="B43" t="s">
@@ -1067,7 +1064,7 @@
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A44" t="s">
+      <c r="A44" s="2" t="s">
         <v>46</v>
       </c>
       <c r="B44" t="s">
@@ -1075,7 +1072,7 @@
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A45" t="s">
+      <c r="A45" s="2" t="s">
         <v>47</v>
       </c>
       <c r="B45" t="s">
@@ -1083,7 +1080,7 @@
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A46" t="s">
+      <c r="A46" s="2" t="s">
         <v>48</v>
       </c>
       <c r="B46" t="s">
@@ -1091,7 +1088,7 @@
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A47" t="s">
+      <c r="A47" s="2" t="s">
         <v>49</v>
       </c>
       <c r="B47" t="s">
@@ -1099,7 +1096,7 @@
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A48" t="s">
+      <c r="A48" s="2" t="s">
         <v>50</v>
       </c>
       <c r="B48" t="s">
@@ -1107,7 +1104,7 @@
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A49" t="s">
+      <c r="A49" s="2" t="s">
         <v>51</v>
       </c>
       <c r="B49" t="s">
@@ -1115,7 +1112,7 @@
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A50" t="s">
+      <c r="A50" s="2" t="s">
         <v>52</v>
       </c>
       <c r="B50" t="s">
@@ -1123,7 +1120,7 @@
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A51" t="s">
+      <c r="A51" s="2" t="s">
         <v>53</v>
       </c>
       <c r="B51" t="s">
@@ -1131,7 +1128,7 @@
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A52" t="s">
+      <c r="A52" s="2" t="s">
         <v>54</v>
       </c>
       <c r="B52" t="s">
@@ -1147,7 +1144,7 @@
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A54" t="s">
+      <c r="A54" s="2" t="s">
         <v>56</v>
       </c>
       <c r="B54" t="s">
@@ -1155,7 +1152,7 @@
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A55" t="s">
+      <c r="A55" s="2" t="s">
         <v>57</v>
       </c>
       <c r="B55" t="s">
@@ -1163,7 +1160,7 @@
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A56" t="s">
+      <c r="A56" s="2" t="s">
         <v>58</v>
       </c>
       <c r="B56" t="s">
@@ -1171,7 +1168,7 @@
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A57" t="s">
+      <c r="A57" s="2" t="s">
         <v>59</v>
       </c>
       <c r="B57" t="s">
@@ -1179,7 +1176,7 @@
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A58" t="s">
+      <c r="A58" s="2" t="s">
         <v>60</v>
       </c>
       <c r="B58" t="s">
@@ -1187,7 +1184,7 @@
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A59" t="s">
+      <c r="A59" s="2" t="s">
         <v>61</v>
       </c>
       <c r="B59" t="s">
@@ -1195,7 +1192,7 @@
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A60" t="s">
+      <c r="A60" s="2" t="s">
         <v>62</v>
       </c>
       <c r="B60" t="s">
@@ -1203,7 +1200,7 @@
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A61" t="s">
+      <c r="A61" s="2" t="s">
         <v>63</v>
       </c>
       <c r="B61" t="s">
@@ -1211,7 +1208,7 @@
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A62" t="s">
+      <c r="A62" s="2" t="s">
         <v>83</v>
       </c>
       <c r="B62" t="s">
@@ -1219,7 +1216,7 @@
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A63" t="s">
+      <c r="A63" s="2" t="s">
         <v>82</v>
       </c>
       <c r="B63" t="s">
@@ -1227,7 +1224,7 @@
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A64" t="s">
+      <c r="A64" s="2" t="s">
         <v>81</v>
       </c>
       <c r="B64" t="s">
@@ -1235,7 +1232,7 @@
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A65" t="s">
+      <c r="A65" s="2" t="s">
         <v>80</v>
       </c>
       <c r="B65" t="s">
@@ -1243,7 +1240,7 @@
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A66" t="s">
+      <c r="A66" s="2" t="s">
         <v>79</v>
       </c>
       <c r="B66" t="s">
@@ -1251,7 +1248,7 @@
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A67" t="s">
+      <c r="A67" s="2" t="s">
         <v>78</v>
       </c>
       <c r="B67" t="s">
@@ -1259,7 +1256,7 @@
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A68" t="s">
+      <c r="A68" s="2" t="s">
         <v>77</v>
       </c>
       <c r="B68" t="s">
@@ -1267,7 +1264,7 @@
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A69" t="s">
+      <c r="A69" s="2" t="s">
         <v>76</v>
       </c>
       <c r="B69" t="s">
@@ -1275,7 +1272,7 @@
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A70" t="s">
+      <c r="A70" s="2" t="s">
         <v>75</v>
       </c>
       <c r="B70" t="s">
@@ -1283,7 +1280,7 @@
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A71" t="s">
+      <c r="A71" s="2" t="s">
         <v>74</v>
       </c>
       <c r="B71" t="s">
@@ -1291,7 +1288,7 @@
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A72" t="s">
+      <c r="A72" s="2" t="s">
         <v>73</v>
       </c>
       <c r="B72" t="s">
@@ -1299,7 +1296,7 @@
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A73" t="s">
+      <c r="A73" s="2" t="s">
         <v>72</v>
       </c>
       <c r="B73" t="s">
@@ -1307,7 +1304,7 @@
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A74" t="s">
+      <c r="A74" s="2" t="s">
         <v>71</v>
       </c>
       <c r="B74" t="s">
@@ -1315,7 +1312,7 @@
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A75" t="s">
+      <c r="A75" s="2" t="s">
         <v>70</v>
       </c>
       <c r="B75" t="s">
@@ -1323,7 +1320,7 @@
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A76" t="s">
+      <c r="A76" s="2" t="s">
         <v>69</v>
       </c>
       <c r="B76" t="s">
@@ -1331,7 +1328,7 @@
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A77" s="3" t="s">
+      <c r="A77" s="2" t="s">
         <v>68</v>
       </c>
       <c r="B77" t="s">
@@ -1339,7 +1336,7 @@
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A78" t="s">
+      <c r="A78" s="2" t="s">
         <v>67</v>
       </c>
       <c r="B78" t="s">
@@ -1347,7 +1344,7 @@
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A79" t="s">
+      <c r="A79" s="2" t="s">
         <v>66</v>
       </c>
       <c r="B79" t="s">
@@ -1355,7 +1352,7 @@
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A80" t="s">
+      <c r="A80" s="2" t="s">
         <v>65</v>
       </c>
       <c r="B80" t="s">
@@ -1363,7 +1360,7 @@
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A81" t="s">
+      <c r="A81" s="2" t="s">
         <v>64</v>
       </c>
       <c r="B81" t="s">
@@ -1371,103 +1368,163 @@
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A82" t="s">
+      <c r="A82" s="2" t="s">
         <v>85</v>
       </c>
+      <c r="B82" t="s">
+        <v>106</v>
+      </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A83" t="s">
+      <c r="A83" s="2" t="s">
         <v>86</v>
       </c>
+      <c r="B83" t="s">
+        <v>106</v>
+      </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A84" t="s">
+      <c r="A84" s="2" t="s">
         <v>87</v>
       </c>
+      <c r="B84" t="s">
+        <v>106</v>
+      </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A85" t="s">
+      <c r="A85" s="2" t="s">
         <v>88</v>
       </c>
+      <c r="B85" t="s">
+        <v>106</v>
+      </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A86" t="s">
+      <c r="A86" s="2" t="s">
         <v>89</v>
       </c>
+      <c r="B86" t="s">
+        <v>106</v>
+      </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A87" t="s">
+      <c r="A87" s="2" t="s">
         <v>90</v>
       </c>
+      <c r="B87" t="s">
+        <v>106</v>
+      </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A88" t="s">
+      <c r="A88" s="2" t="s">
         <v>103</v>
       </c>
+      <c r="B88" t="s">
+        <v>106</v>
+      </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A89" t="s">
+      <c r="A89" s="2" t="s">
         <v>91</v>
       </c>
+      <c r="B89" t="s">
+        <v>106</v>
+      </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A90" t="s">
+      <c r="A90" s="2" t="s">
         <v>92</v>
       </c>
+      <c r="B90" t="s">
+        <v>106</v>
+      </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A91" t="s">
+      <c r="A91" s="2" t="s">
         <v>104</v>
       </c>
+      <c r="B91" t="s">
+        <v>106</v>
+      </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A92" t="s">
+      <c r="A92" s="2" t="s">
         <v>93</v>
       </c>
+      <c r="B92" t="s">
+        <v>106</v>
+      </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A93" t="s">
+      <c r="A93" s="2" t="s">
         <v>94</v>
       </c>
+      <c r="B93" t="s">
+        <v>106</v>
+      </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A94" t="s">
+      <c r="A94" s="2" t="s">
         <v>102</v>
       </c>
+      <c r="B94" t="s">
+        <v>106</v>
+      </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A95" t="s">
+      <c r="A95" s="2" t="s">
         <v>105</v>
       </c>
+      <c r="B95" t="s">
+        <v>106</v>
+      </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A96" t="s">
+      <c r="A96" s="2" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A97" t="s">
+      <c r="B96" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A97" s="2" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A98" t="s">
+      <c r="B97" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A98" s="2" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A99" t="s">
+      <c r="B98" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A99" s="2" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A100" t="s">
+      <c r="B99" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A100" s="2" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A101" t="s">
+      <c r="B100" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A101" s="2" t="s">
         <v>100</v>
+      </c>
+      <c r="B101" t="s">
+        <v>106</v>
       </c>
     </row>
   </sheetData>
